--- a/ResultsTwo.xlsx
+++ b/ResultsTwo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik Gustafsson\Documents\Skolarbete\Uppsats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik Gustafsson\Documents\Skolarbete\Uppsats\OpenAI-Feedback-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFA93C5-5D5F-48AB-9E21-1F548B8CF1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2085BE02-3CE6-4703-8A46-900CE964BD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28005" yWindow="0" windowWidth="23595" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,10 +178,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D6:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,10 +491,10 @@
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -502,10 +502,10 @@
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -513,10 +513,10 @@
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <v>1</v>
       </c>
     </row>
@@ -524,10 +524,10 @@
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
         <v>1</v>
       </c>
     </row>
@@ -535,10 +535,10 @@
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -546,10 +546,10 @@
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
         <v>1</v>
       </c>
     </row>
@@ -557,10 +557,10 @@
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>1</v>
       </c>
     </row>
@@ -568,10 +568,10 @@
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
         <v>1</v>
       </c>
     </row>
@@ -579,10 +579,10 @@
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
         <v>1</v>
       </c>
     </row>
@@ -590,10 +590,10 @@
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
         <v>1</v>
       </c>
     </row>
@@ -601,10 +601,10 @@
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
         <v>1</v>
       </c>
     </row>
@@ -612,29 +612,29 @@
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" ref="E18" si="0">SUM(E8:E17)</f>
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f>SUM(F8:F17)</f>
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -642,10 +642,10 @@
       <c r="D24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>0.5</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>1</v>
       </c>
     </row>
@@ -653,10 +653,10 @@
       <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
         <v>1</v>
       </c>
     </row>
@@ -664,10 +664,10 @@
       <c r="D26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
         <v>1</v>
       </c>
     </row>
@@ -675,10 +675,10 @@
       <c r="D27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
         <v>1</v>
       </c>
     </row>
@@ -686,10 +686,10 @@
       <c r="D28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
         <v>1</v>
       </c>
     </row>
@@ -697,10 +697,10 @@
       <c r="D29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
         <v>1</v>
       </c>
     </row>
@@ -708,10 +708,10 @@
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
@@ -719,10 +719,10 @@
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
         <v>1</v>
       </c>
     </row>
@@ -730,10 +730,10 @@
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>0.5</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>1</v>
       </c>
     </row>
@@ -741,10 +741,10 @@
       <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -752,29 +752,29 @@
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <f>SUM(E24:E33)</f>
         <v>6</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <f>SUM(F24:F33)</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -782,10 +782,10 @@
       <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>0.5</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>1</v>
       </c>
     </row>
@@ -793,10 +793,10 @@
       <c r="D41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
         <v>1</v>
       </c>
     </row>
@@ -804,10 +804,10 @@
       <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
         <v>1</v>
       </c>
     </row>
@@ -815,10 +815,10 @@
       <c r="D43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
         <v>1</v>
       </c>
     </row>
@@ -826,10 +826,10 @@
       <c r="D44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
         <v>1</v>
       </c>
     </row>
@@ -837,10 +837,10 @@
       <c r="D45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
         <v>1</v>
       </c>
     </row>
@@ -848,10 +848,10 @@
       <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
         <v>1</v>
       </c>
     </row>
@@ -859,10 +859,10 @@
       <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>0.5</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>1</v>
       </c>
     </row>
@@ -870,21 +870,21 @@
       <c r="D48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.5</v>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
         <v>1</v>
       </c>
     </row>
@@ -892,29 +892,29 @@
       <c r="D50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <f t="shared" ref="E50" si="1">SUM(E40:E49)</f>
         <v>8</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <f>SUM(F40:F49)</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1042,19 +1042,19 @@
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F70" s="2"/>
+      <c r="F70" s="3"/>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
         <v>0.5</v>
       </c>
       <c r="F76" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="F82" s="1">
         <f>SUM(F72:F81)</f>
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
